--- a/course_project/data/cum_and_ann_installed_cap_bundesland.xlsx
+++ b/course_project/data/cum_and_ann_installed_cap_bundesland.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi Eckmann\Desktop\ETH Studium\MASTERSTUDIUM\2. Semester\Big Data for Public Policy\big_data_policy_2020\course_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90394512-64C1-4047-A0B3-AF4656910C36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6F71AD-1F14-4E6C-9BB6-AAE86AED4064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:N501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F10" sqref="F2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,9 +572,6 @@
       <c r="E2">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
         <v>9822027</v>
       </c>
@@ -618,9 +615,6 @@
       <c r="E3">
         <v>10</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
         <v>11448823</v>
       </c>
@@ -664,9 +658,6 @@
       <c r="E4">
         <v>10</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
         <v>3433695</v>
       </c>
@@ -710,9 +701,6 @@
       <c r="E5">
         <v>10</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
         <v>1652363</v>
       </c>
@@ -756,9 +744,6 @@
       <c r="E6">
         <v>10</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
         <v>7387245</v>
       </c>
@@ -802,9 +787,6 @@
       <c r="E7">
         <v>10</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
         <v>17349651</v>
       </c>
@@ -848,9 +830,6 @@
       <c r="E8">
         <v>10</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
         <v>3763510</v>
       </c>
@@ -894,9 +873,6 @@
       <c r="E9">
         <v>10</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
         <v>1072963</v>
       </c>
@@ -939,9 +915,6 @@
       </c>
       <c r="E10">
         <v>10</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
       </c>
       <c r="G10">
         <v>2626127</v>

--- a/course_project/data/cum_and_ann_installed_cap_bundesland.xlsx
+++ b/course_project/data/cum_and_ann_installed_cap_bundesland.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi Eckmann\Desktop\ETH Studium\MASTERSTUDIUM\2. Semester\Big Data for Public Policy\big_data_policy_2020\course_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6F71AD-1F14-4E6C-9BB6-AAE86AED4064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B396F31F-F4A2-4BCA-BCCC-5C735C0706C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:N501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F2:F10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,7 +502,7 @@
     <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.77734375" customWidth="1"/>
     <col min="9" max="9" width="11.77734375" customWidth="1"/>

--- a/course_project/data/cum_and_ann_installed_cap_bundesland.xlsx
+++ b/course_project/data/cum_and_ann_installed_cap_bundesland.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi Eckmann\Desktop\ETH Studium\MASTERSTUDIUM\2. Semester\Big Data for Public Policy\big_data_policy_2020\course_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144C2810-930F-4607-97F9-71D969359DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0DA47D-EAD9-4CE8-BFE3-800C2A2715B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="31">
-  <si>
-    <t>Jahr</t>
-  </si>
   <si>
     <t>Installed_Cap</t>
   </si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>pop_density</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -496,9 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -517,49 +515,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
         <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -567,7 +565,7 @@
         <v>1990</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>28.959</v>
@@ -614,7 +612,7 @@
         <v>1990</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>110.74</v>
@@ -661,7 +659,7 @@
         <v>1990</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>14.18</v>
@@ -708,7 +706,7 @@
         <v>1990</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>10.99</v>
@@ -755,7 +753,7 @@
         <v>1990</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>13.72</v>
@@ -802,7 +800,7 @@
         <v>1990</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>11.93</v>
@@ -849,7 +847,7 @@
         <v>1990</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>15.9</v>
@@ -896,7 +894,7 @@
         <v>1990</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>13.655000000000001</v>
@@ -943,7 +941,7 @@
         <v>1990</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>5.8</v>
@@ -990,7 +988,7 @@
         <v>1991</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>53.42</v>
@@ -1044,7 +1042,7 @@
         <v>1991</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>110.36499999999999</v>
@@ -1098,7 +1096,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>33.1</v>
@@ -1152,7 +1150,7 @@
         <v>1991</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>5.2</v>
@@ -1206,7 +1204,7 @@
         <v>1991</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>63.69</v>
@@ -1260,7 +1258,7 @@
         <v>1991</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>41.42</v>
@@ -1314,7 +1312,7 @@
         <v>1991</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>75.69</v>
@@ -1368,7 +1366,7 @@
         <v>1991</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>65.364999999999995</v>
@@ -1422,7 +1420,7 @@
         <v>1991</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>144.286</v>
@@ -1476,7 +1474,7 @@
         <v>1991</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>29.998000000000001</v>
@@ -1530,7 +1528,7 @@
         <v>1991</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>3.6</v>
@@ -1584,7 +1582,7 @@
         <v>1991</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1638,7 +1636,7 @@
         <v>1991</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>24</v>
@@ -1692,7 +1690,7 @@
         <v>1991</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -1746,7 +1744,7 @@
         <v>1992</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>124.661</v>
@@ -1800,7 +1798,7 @@
         <v>1992</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>157.57400000000001</v>
@@ -1854,7 +1852,7 @@
         <v>1992</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>127.11</v>
@@ -1908,7 +1906,7 @@
         <v>1992</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>37.880000000000003</v>
@@ -1962,7 +1960,7 @@
         <v>1992</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>57.06</v>
@@ -2016,7 +2014,7 @@
         <v>1992</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>66.864000000000004</v>
@@ -2070,7 +2068,7 @@
         <v>1992</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>228.809</v>
@@ -2124,7 +2122,7 @@
         <v>1992</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32">
         <v>16.2</v>
@@ -2178,7 +2176,7 @@
         <v>1992</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33">
         <v>142.77000000000001</v>
@@ -2232,7 +2230,7 @@
         <v>1992</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34">
         <v>208.22800000000001</v>
@@ -2286,7 +2284,7 @@
         <v>1992</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35">
         <v>155.52799999999999</v>
@@ -2340,7 +2338,7 @@
         <v>1992</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36">
         <v>26.968</v>
@@ -2394,7 +2392,7 @@
         <v>1992</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37">
         <v>176.84100000000001</v>
@@ -2448,7 +2446,7 @@
         <v>1992</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38">
         <v>13.15</v>
@@ -2502,7 +2500,7 @@
         <v>1992</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <v>94.570000000000007</v>
@@ -2556,7 +2554,7 @@
         <v>1992</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40">
         <v>45.88</v>
@@ -2610,7 +2608,7 @@
         <v>1993</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>223.99</v>
@@ -2664,7 +2662,7 @@
         <v>1993</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>264.16399999999999</v>
@@ -2718,7 +2716,7 @@
         <v>1993</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43">
         <v>51.71</v>
@@ -2772,7 +2770,7 @@
         <v>1993</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44">
         <v>153.738</v>
@@ -2826,7 +2824,7 @@
         <v>1993</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C45">
         <v>66.319999999999993</v>
@@ -2880,7 +2878,7 @@
         <v>1993</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <v>34.566000000000003</v>
@@ -2934,7 +2932,7 @@
         <v>1993</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47">
         <v>177.47800000000001</v>
@@ -2988,7 +2986,7 @@
         <v>1993</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48">
         <v>130.02000000000001</v>
@@ -3042,7 +3040,7 @@
         <v>1993</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49">
         <v>177.38200000000001</v>
@@ -3096,7 +3094,7 @@
         <v>1993</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50">
         <v>187.78899999999999</v>
@@ -3150,7 +3148,7 @@
         <v>1993</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51">
         <v>127.956</v>
@@ -3204,7 +3202,7 @@
         <v>1993</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C52">
         <v>30.03</v>
@@ -3258,7 +3256,7 @@
         <v>1993</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53">
         <v>187.285</v>
@@ -3312,7 +3310,7 @@
         <v>1993</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C54">
         <v>44.811999999999998</v>
@@ -3366,7 +3364,7 @@
         <v>1993</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C55">
         <v>121.61799999999999</v>
@@ -3420,7 +3418,7 @@
         <v>1993</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56">
         <v>133.34</v>
@@ -3474,7 +3472,7 @@
         <v>1994</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>188.285</v>
@@ -3528,7 +3526,7 @@
         <v>1994</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58">
         <v>156.72999999999999</v>
@@ -3582,7 +3580,7 @@
         <v>1994</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59">
         <v>65.652000000000001</v>
@@ -3636,7 +3634,7 @@
         <v>1994</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60">
         <v>246.34399999999999</v>
@@ -3690,7 +3688,7 @@
         <v>1994</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C61">
         <v>34.479999999999997</v>
@@ -3744,7 +3742,7 @@
         <v>1994</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62">
         <v>19.670000000000002</v>
@@ -3798,7 +3796,7 @@
         <v>1994</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63">
         <v>71.55</v>
@@ -3852,7 +3850,7 @@
         <v>1994</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64">
         <v>103.342</v>
@@ -3906,7 +3904,7 @@
         <v>1994</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65">
         <v>90.798000000000002</v>
@@ -3960,7 +3958,7 @@
         <v>1994</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66">
         <v>297.11</v>
@@ -4014,7 +4012,7 @@
         <v>1994</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67">
         <v>74.430000000000007</v>
@@ -4068,7 +4066,7 @@
         <v>1994</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C68">
         <v>7.36</v>
@@ -4122,7 +4120,7 @@
         <v>1994</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C69">
         <v>175.756</v>
@@ -4176,7 +4174,7 @@
         <v>1994</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C70">
         <v>118.13500000000001</v>
@@ -4230,7 +4228,7 @@
         <v>1994</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71">
         <v>23.27</v>
@@ -4284,7 +4282,7 @@
         <v>1994</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C72">
         <v>265.26299999999998</v>
@@ -4338,7 +4336,7 @@
         <v>1995</v>
       </c>
       <c r="B73" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>163.32999999999998</v>
@@ -4392,7 +4390,7 @@
         <v>1995</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74">
         <v>136.37</v>
@@ -4446,7 +4444,7 @@
         <v>1995</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75">
         <v>85.686000000000007</v>
@@ -4500,7 +4498,7 @@
         <v>1995</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76">
         <v>85.3</v>
@@ -4554,7 +4552,7 @@
         <v>1995</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C77">
         <v>2.8</v>
@@ -4608,7 +4606,7 @@
         <v>1995</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78">
         <v>25.558</v>
@@ -4662,7 +4660,7 @@
         <v>1995</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79">
         <v>28.14</v>
@@ -4716,7 +4714,7 @@
         <v>1995</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C80">
         <v>34.433</v>
@@ -4770,7 +4768,7 @@
         <v>1995</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81">
         <v>118.98</v>
@@ -4824,7 +4822,7 @@
         <v>1995</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82">
         <v>596.89200000000005</v>
@@ -4878,7 +4876,7 @@
         <v>1995</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83">
         <v>40.612000000000002</v>
@@ -4932,7 +4930,7 @@
         <v>1995</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C84">
         <v>7.7359999999999998</v>
@@ -4986,7 +4984,7 @@
         <v>1995</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C85">
         <v>22.16</v>
@@ -5040,7 +5038,7 @@
         <v>1995</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C86">
         <v>43.241</v>
@@ -5094,7 +5092,7 @@
         <v>1995</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C87">
         <v>32.1</v>
@@ -5148,7 +5146,7 @@
         <v>1995</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C88">
         <v>67.95</v>
@@ -5202,7 +5200,7 @@
         <v>1996</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89">
         <v>475.61</v>
@@ -5256,7 +5254,7 @@
         <v>1996</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90">
         <v>707.06299999999999</v>
@@ -5310,7 +5308,7 @@
         <v>1996</v>
       </c>
       <c r="B91" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C91">
         <v>55.49</v>
@@ -5364,7 +5362,7 @@
         <v>1996</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C92">
         <v>39.397999999999996</v>
@@ -5418,7 +5416,7 @@
         <v>1996</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C93">
         <v>11.940000000000001</v>
@@ -5472,7 +5470,7 @@
         <v>1996</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C94">
         <v>152.56</v>
@@ -5526,7 +5524,7 @@
         <v>1996</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95">
         <v>120.59</v>
@@ -5580,7 +5578,7 @@
         <v>1996</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C96">
         <v>49.417000000000002</v>
@@ -5634,7 +5632,7 @@
         <v>1996</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97">
         <v>209</v>
@@ -5688,7 +5686,7 @@
         <v>1996</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C98">
         <v>2044.4590000000001</v>
@@ -5742,7 +5740,7 @@
         <v>1996</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99">
         <v>53.142000000000003</v>
@@ -5796,7 +5794,7 @@
         <v>1996</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C100">
         <v>49.034999999999997</v>
@@ -5850,7 +5848,7 @@
         <v>1996</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C101">
         <v>81.37</v>
@@ -5904,7 +5902,7 @@
         <v>1996</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C102">
         <v>4.5999999999999996</v>
@@ -5958,7 +5956,7 @@
         <v>1996</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C103">
         <v>37.79</v>
@@ -6012,7 +6010,7 @@
         <v>1996</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C104">
         <v>29.52</v>
@@ -6066,7 +6064,7 @@
         <v>1997</v>
       </c>
       <c r="B105" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105">
         <v>526.20500000000004</v>
@@ -6120,7 +6118,7 @@
         <v>1997</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106">
         <v>1244.652</v>
@@ -6174,7 +6172,7 @@
         <v>1997</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C107">
         <v>76.326000000000008</v>
@@ -6228,7 +6226,7 @@
         <v>1997</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C108">
         <v>27.64</v>
@@ -6282,7 +6280,7 @@
         <v>1997</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C109">
         <v>29.82</v>
@@ -6336,7 +6334,7 @@
         <v>1997</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C110">
         <v>625.21900000000005</v>
@@ -6390,7 +6388,7 @@
         <v>1997</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C111">
         <v>96.73</v>
@@ -6444,7 +6442,7 @@
         <v>1997</v>
       </c>
       <c r="B112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C112">
         <v>23.044</v>
@@ -6498,7 +6496,7 @@
         <v>1997</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113">
         <v>136.29</v>
@@ -6552,7 +6550,7 @@
         <v>1997</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C114">
         <v>2986.9810000000002</v>
@@ -6606,7 +6604,7 @@
         <v>1997</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115">
         <v>151.30799999999999</v>
@@ -6660,7 +6658,7 @@
         <v>1997</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C116">
         <v>169.85499999999999</v>
@@ -6714,7 +6712,7 @@
         <v>1997</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C117">
         <v>57.854999999999997</v>
@@ -6768,7 +6766,7 @@
         <v>1997</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C118">
         <v>26.099999999999998</v>
@@ -6822,7 +6820,7 @@
         <v>1997</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C119">
         <v>174.63</v>
@@ -6876,7 +6874,7 @@
         <v>1997</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C120">
         <v>79.540000000000006</v>
@@ -6930,7 +6928,7 @@
         <v>1998</v>
       </c>
       <c r="B121" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C121">
         <v>587.30799999999999</v>
@@ -6984,7 +6982,7 @@
         <v>1998</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C122">
         <v>1612.096</v>
@@ -7038,7 +7036,7 @@
         <v>1998</v>
       </c>
       <c r="B123" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C123">
         <v>220.589</v>
@@ -7092,7 +7090,7 @@
         <v>1998</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C124">
         <v>23.08</v>
@@ -7146,7 +7144,7 @@
         <v>1998</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C125">
         <v>16.66</v>
@@ -7200,7 +7198,7 @@
         <v>1998</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C126">
         <v>348.83499999999998</v>
@@ -7254,7 +7252,7 @@
         <v>1998</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C127">
         <v>130.47999999999999</v>
@@ -7308,7 +7306,7 @@
         <v>1998</v>
       </c>
       <c r="B128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C128">
         <v>26.3</v>
@@ -7362,7 +7360,7 @@
         <v>1998</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C129">
         <v>167.28</v>
@@ -7416,7 +7414,7 @@
         <v>1998</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130">
         <v>3227.4450000000002</v>
@@ -7470,7 +7468,7 @@
         <v>1998</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C131">
         <v>70.521000000000001</v>
@@ -7524,7 +7522,7 @@
         <v>1998</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C132">
         <v>121.72499999999999</v>
@@ -7578,7 +7576,7 @@
         <v>1998</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C133">
         <v>48.3</v>
@@ -7632,7 +7630,7 @@
         <v>1998</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C134">
         <v>24.34</v>
@@ -7686,7 +7684,7 @@
         <v>1998</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C135">
         <v>225.59399999999999</v>
@@ -7740,7 +7738,7 @@
         <v>1998</v>
       </c>
       <c r="B136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C136">
         <v>54.16</v>
@@ -7794,7 +7792,7 @@
         <v>1999</v>
       </c>
       <c r="B137" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C137">
         <v>1234.5219999999999</v>
@@ -7848,7 +7846,7 @@
         <v>1999</v>
       </c>
       <c r="B138" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C138">
         <v>2407.02</v>
@@ -7902,7 +7900,7 @@
         <v>1999</v>
       </c>
       <c r="B139" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C139">
         <v>311.69499999999999</v>
@@ -7956,7 +7954,7 @@
         <v>1999</v>
       </c>
       <c r="B140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C140">
         <v>95.022999999999996</v>
@@ -8010,7 +8008,7 @@
         <v>1999</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C141">
         <v>62.589999999999996</v>
@@ -8064,7 +8062,7 @@
         <v>1999</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C142">
         <v>251.27699999999999</v>
@@ -8118,7 +8116,7 @@
         <v>1999</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C143">
         <v>527.09299999999996</v>
@@ -8172,7 +8170,7 @@
         <v>1999</v>
       </c>
       <c r="B144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C144">
         <v>91.864999999999995</v>
@@ -8226,7 +8224,7 @@
         <v>1999</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C145">
         <v>479.16199999999998</v>
@@ -8280,7 +8278,7 @@
         <v>1999</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146">
         <v>2856.6129999999998</v>
@@ -8334,7 +8332,7 @@
         <v>1999</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147">
         <v>190.321</v>
@@ -8388,7 +8386,7 @@
         <v>1999</v>
       </c>
       <c r="B148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C148">
         <v>301.52</v>
@@ -8442,7 +8440,7 @@
         <v>1999</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C149">
         <v>71.025999999999996</v>
@@ -8496,7 +8494,7 @@
         <v>1999</v>
       </c>
       <c r="B150" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C150">
         <v>12.3</v>
@@ -8550,7 +8548,7 @@
         <v>1999</v>
       </c>
       <c r="B151" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C151">
         <v>311.20400000000001</v>
@@ -8604,7 +8602,7 @@
         <v>1999</v>
       </c>
       <c r="B152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C152">
         <v>81.564000000000007</v>
@@ -8658,7 +8656,7 @@
         <v>2000</v>
       </c>
       <c r="B153" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C153">
         <v>7462.2820000000002</v>
@@ -8712,7 +8710,7 @@
         <v>2000</v>
       </c>
       <c r="B154" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C154">
         <v>17207.444</v>
@@ -8766,7 +8764,7 @@
         <v>2000</v>
       </c>
       <c r="B155" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C155">
         <v>495.49200000000002</v>
@@ -8820,7 +8818,7 @@
         <v>2000</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C156">
         <v>265.26299999999998</v>
@@ -8874,7 +8872,7 @@
         <v>2000</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C157">
         <v>75.694000000000003</v>
@@ -8928,7 +8926,7 @@
         <v>2000</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C158">
         <v>238.96199999999999</v>
@@ -8982,7 +8980,7 @@
         <v>2000</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C159">
         <v>2858.6030000000001</v>
@@ -9036,7 +9034,7 @@
         <v>2000</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C160">
         <v>116.47199999999999</v>
@@ -9090,7 +9088,7 @@
         <v>2000</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C161">
         <v>3023.9609999999998</v>
@@ -9144,7 +9142,7 @@
         <v>2000</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C162">
         <v>8032.366</v>
@@ -9198,7 +9196,7 @@
         <v>2000</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C163">
         <v>1108.9259999999999</v>
@@ -9252,7 +9250,7 @@
         <v>2000</v>
       </c>
       <c r="B164" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C164">
         <v>611.68299999999999</v>
@@ -9306,7 +9304,7 @@
         <v>2000</v>
       </c>
       <c r="B165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C165">
         <v>271.78500000000003</v>
@@ -9360,7 +9358,7 @@
         <v>2000</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C166">
         <v>173.471</v>
@@ -9414,7 +9412,7 @@
         <v>2000</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C167">
         <v>692.35199999999998</v>
@@ -9468,7 +9466,7 @@
         <v>2000</v>
       </c>
       <c r="B168" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C168">
         <v>449.72500000000002</v>
@@ -9522,7 +9520,7 @@
         <v>2001</v>
       </c>
       <c r="B169" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C169">
         <v>29943.703000000001</v>
@@ -9576,7 +9574,7 @@
         <v>2001</v>
       </c>
       <c r="B170" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C170">
         <v>43954.5</v>
@@ -9630,7 +9628,7 @@
         <v>2001</v>
       </c>
       <c r="B171" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C171">
         <v>779.59199999999998</v>
@@ -9684,7 +9682,7 @@
         <v>2001</v>
       </c>
       <c r="B172" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C172">
         <v>887.90599999999995</v>
@@ -9738,7 +9736,7 @@
         <v>2001</v>
       </c>
       <c r="B173" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C173">
         <v>223.8</v>
@@ -9792,7 +9790,7 @@
         <v>2001</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C174">
         <v>288.51</v>
@@ -9846,7 +9844,7 @@
         <v>2001</v>
       </c>
       <c r="B175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C175">
         <v>5522.6189999999997</v>
@@ -9900,7 +9898,7 @@
         <v>2001</v>
       </c>
       <c r="B176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C176">
         <v>985.26499999999999</v>
@@ -9954,7 +9952,7 @@
         <v>2001</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C177">
         <v>8074.31</v>
@@ -10008,7 +10006,7 @@
         <v>2001</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C178">
         <v>15053.367</v>
@@ -10062,7 +10060,7 @@
         <v>2001</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C179">
         <v>3596.2629999999999</v>
@@ -10116,7 +10114,7 @@
         <v>2001</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C180">
         <v>1026.28</v>
@@ -10170,7 +10168,7 @@
         <v>2001</v>
       </c>
       <c r="B181" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C181">
         <v>1051.9190000000001</v>
@@ -10224,7 +10222,7 @@
         <v>2001</v>
       </c>
       <c r="B182" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C182">
         <v>718.46500000000003</v>
@@ -10278,7 +10276,7 @@
         <v>2001</v>
       </c>
       <c r="B183" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C183">
         <v>1670.5</v>
@@ -10332,7 +10330,7 @@
         <v>2001</v>
       </c>
       <c r="B184" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C184">
         <v>1652.4010000000001</v>
@@ -10386,7 +10384,7 @@
         <v>2002</v>
       </c>
       <c r="B185" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C185">
         <v>33788.233999999997</v>
@@ -10439,7 +10437,7 @@
         <v>2002</v>
       </c>
       <c r="B186" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C186">
         <v>48786.595999999998</v>
@@ -10492,7 +10490,7 @@
         <v>2002</v>
       </c>
       <c r="B187" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C187">
         <v>324.99</v>
@@ -10545,7 +10543,7 @@
         <v>2002</v>
       </c>
       <c r="B188" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C188">
         <v>522.78499999999997</v>
@@ -10598,7 +10596,7 @@
         <v>2002</v>
       </c>
       <c r="B189" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C189">
         <v>156.71799999999999</v>
@@ -10651,7 +10649,7 @@
         <v>2002</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C190">
         <v>146.429</v>
@@ -10704,7 +10702,7 @@
         <v>2002</v>
       </c>
       <c r="B191" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C191">
         <v>4633.6149999999998</v>
@@ -10757,7 +10755,7 @@
         <v>2002</v>
       </c>
       <c r="B192" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C192">
         <v>461.53899999999999</v>
@@ -10810,7 +10808,7 @@
         <v>2002</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C193">
         <v>5073.5680000000002</v>
@@ -10863,7 +10861,7 @@
         <v>2002</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194">
         <v>13643.281000000001</v>
@@ -10916,7 +10914,7 @@
         <v>2002</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C195">
         <v>2747.6750000000002</v>
@@ -10969,7 +10967,7 @@
         <v>2002</v>
       </c>
       <c r="B196" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C196">
         <v>359.46</v>
@@ -11022,7 +11020,7 @@
         <v>2002</v>
       </c>
       <c r="B197" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C197">
         <v>952.78499999999997</v>
@@ -11075,7 +11073,7 @@
         <v>2002</v>
       </c>
       <c r="B198" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C198">
         <v>461.82</v>
@@ -11128,7 +11126,7 @@
         <v>2002</v>
       </c>
       <c r="B199" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C199">
         <v>968.70500000000004</v>
@@ -11181,7 +11179,7 @@
         <v>2002</v>
       </c>
       <c r="B200" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C200">
         <v>905.404</v>
@@ -11234,7 +11232,7 @@
         <v>2003</v>
       </c>
       <c r="B201" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C201">
         <v>50431.112999999998</v>
@@ -11287,7 +11285,7 @@
         <v>2003</v>
       </c>
       <c r="B202" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C202">
         <v>85987.995999999999</v>
@@ -11340,7 +11338,7 @@
         <v>2003</v>
       </c>
       <c r="B203" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C203">
         <v>210.411</v>
@@ -11393,7 +11391,7 @@
         <v>2003</v>
       </c>
       <c r="B204" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C204">
         <v>410.35199999999998</v>
@@ -11446,7 +11444,7 @@
         <v>2003</v>
       </c>
       <c r="B205" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C205">
         <v>188.34399999999999</v>
@@ -11499,7 +11497,7 @@
         <v>2003</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C206">
         <v>169.393</v>
@@ -11552,7 +11550,7 @@
         <v>2003</v>
       </c>
       <c r="B207" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C207">
         <v>6639.1589999999997</v>
@@ -11605,7 +11603,7 @@
         <v>2003</v>
       </c>
       <c r="B208" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C208">
         <v>531.07000000000005</v>
@@ -11658,7 +11656,7 @@
         <v>2003</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C209">
         <v>6182.9480000000003</v>
@@ -11711,7 +11709,7 @@
         <v>2003</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C210">
         <v>14413.903</v>
@@ -11764,7 +11762,7 @@
         <v>2003</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C211">
         <v>3546.346</v>
@@ -11817,7 +11815,7 @@
         <v>2003</v>
       </c>
       <c r="B212" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C212">
         <v>300.04000000000002</v>
@@ -11870,7 +11868,7 @@
         <v>2003</v>
       </c>
       <c r="B213" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C213">
         <v>778.01099999999997</v>
@@ -11923,7 +11921,7 @@
         <v>2003</v>
       </c>
       <c r="B214" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C214">
         <v>425.20300000000003</v>
@@ -11976,7 +11974,7 @@
         <v>2003</v>
       </c>
       <c r="B215" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C215">
         <v>1008.95</v>
@@ -12029,7 +12027,7 @@
         <v>2003</v>
       </c>
       <c r="B216" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C216">
         <v>851.03200000000004</v>
@@ -12082,7 +12080,7 @@
         <v>2004</v>
       </c>
       <c r="B217" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C217">
         <v>128152.553</v>
@@ -12135,7 +12133,7 @@
         <v>2004</v>
       </c>
       <c r="B218" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C218">
         <v>275722.94199999998</v>
@@ -12188,7 +12186,7 @@
         <v>2004</v>
       </c>
       <c r="B219" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C219">
         <v>868</v>
@@ -12241,7 +12239,7 @@
         <v>2004</v>
       </c>
       <c r="B220" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C220">
         <v>2198.7950000000001</v>
@@ -12294,7 +12292,7 @@
         <v>2004</v>
       </c>
       <c r="B221" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C221">
         <v>231.15199999999999</v>
@@ -12347,7 +12345,7 @@
         <v>2004</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C222">
         <v>307.86900000000003</v>
@@ -12400,7 +12398,7 @@
         <v>2004</v>
       </c>
       <c r="B223" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C223">
         <v>28206.352999999999</v>
@@ -12453,7 +12451,7 @@
         <v>2004</v>
       </c>
       <c r="B224" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C224">
         <v>1455.7059999999999</v>
@@ -12506,7 +12504,7 @@
         <v>2004</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C225">
         <v>36054.462</v>
@@ -12559,7 +12557,7 @@
         <v>2004</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C226">
         <v>71610.959000000003</v>
@@ -12612,7 +12610,7 @@
         <v>2004</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C227">
         <v>19134.954000000002</v>
@@ -12665,7 +12663,7 @@
         <v>2004</v>
       </c>
       <c r="B228" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C228">
         <v>1704.623</v>
@@ -12718,7 +12716,7 @@
         <v>2004</v>
       </c>
       <c r="B229" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C229">
         <v>4562.3590000000004</v>
@@ -12771,7 +12769,7 @@
         <v>2004</v>
       </c>
       <c r="B230" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C230">
         <v>3372.2139999999999</v>
@@ -12824,7 +12822,7 @@
         <v>2004</v>
       </c>
       <c r="B231" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C231">
         <v>11210.564</v>
@@ -12877,7 +12875,7 @@
         <v>2004</v>
       </c>
       <c r="B232" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C232">
         <v>2848.221</v>
@@ -12930,7 +12928,7 @@
         <v>2005</v>
       </c>
       <c r="B233" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C233">
         <v>189747.66500000001</v>
@@ -12983,7 +12981,7 @@
         <v>2005</v>
       </c>
       <c r="B234" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C234">
         <v>333362.25099999999</v>
@@ -13036,7 +13034,7 @@
         <v>2005</v>
       </c>
       <c r="B235" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C235">
         <v>904.93399999999997</v>
@@ -13089,7 +13087,7 @@
         <v>2005</v>
       </c>
       <c r="B236" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C236">
         <v>6097.05</v>
@@ -13142,7 +13140,7 @@
         <v>2005</v>
       </c>
       <c r="B237" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C237">
         <v>574.59500000000003</v>
@@ -13195,7 +13193,7 @@
         <v>2005</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C238">
         <v>499.29</v>
@@ -13248,7 +13246,7 @@
         <v>2005</v>
       </c>
       <c r="B239" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C239">
         <v>53531.722999999998</v>
@@ -13301,7 +13299,7 @@
         <v>2005</v>
       </c>
       <c r="B240" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C240">
         <v>4338.8999999999996</v>
@@ -13354,7 +13352,7 @@
         <v>2005</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C241">
         <v>59635.235999999997</v>
@@ -13407,7 +13405,7 @@
         <v>2005</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C242">
         <v>93915.788</v>
@@ -13460,7 +13458,7 @@
         <v>2005</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C243">
         <v>38426.131000000001</v>
@@ -13513,7 +13511,7 @@
         <v>2005</v>
       </c>
       <c r="B244" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C244">
         <v>3991.3759999999997</v>
@@ -13566,7 +13564,7 @@
         <v>2005</v>
       </c>
       <c r="B245" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C245">
         <v>8943.4930000000004</v>
@@ -13619,7 +13617,7 @@
         <v>2005</v>
       </c>
       <c r="B246" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C246">
         <v>6271.7650000000003</v>
@@ -13672,7 +13670,7 @@
         <v>2005</v>
       </c>
       <c r="B247" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C247">
         <v>19324.379000000001</v>
@@ -13725,7 +13723,7 @@
         <v>2005</v>
       </c>
       <c r="B248" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C248">
         <v>5911.34</v>
@@ -13778,7 +13776,7 @@
         <v>2006</v>
       </c>
       <c r="B249" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C249">
         <v>175309.23499999999</v>
@@ -13831,7 +13829,7 @@
         <v>2006</v>
       </c>
       <c r="B250" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C250">
         <v>230120.731</v>
@@ -13884,7 +13882,7 @@
         <v>2006</v>
       </c>
       <c r="B251" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C251">
         <v>1222.405</v>
@@ -13937,7 +13935,7 @@
         <v>2006</v>
       </c>
       <c r="B252" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C252">
         <v>8299.5040000000008</v>
@@ -13990,7 +13988,7 @@
         <v>2006</v>
       </c>
       <c r="B253" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C253">
         <v>597.08000000000004</v>
@@ -14043,7 +14041,7 @@
         <v>2006</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C254">
         <v>582.875</v>
@@ -14096,7 +14094,7 @@
         <v>2006</v>
       </c>
       <c r="B255" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C255">
         <v>60422.178</v>
@@ -14149,7 +14147,7 @@
         <v>2006</v>
       </c>
       <c r="B256" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C256">
         <v>4843.6090000000004</v>
@@ -14202,7 +14200,7 @@
         <v>2006</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C257">
         <v>66282.252999999997</v>
@@ -14255,7 +14253,7 @@
         <v>2006</v>
       </c>
       <c r="B258" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C258">
         <v>94047.205000000002</v>
@@ -14308,7 +14306,7 @@
         <v>2006</v>
       </c>
       <c r="B259" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C259">
         <v>49032.991000000002</v>
@@ -14361,7 +14359,7 @@
         <v>2006</v>
       </c>
       <c r="B260" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C260">
         <v>6884.6040000000003</v>
@@ -14414,7 +14412,7 @@
         <v>2006</v>
       </c>
       <c r="B261" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C261">
         <v>10649.02</v>
@@ -14467,7 +14465,7 @@
         <v>2006</v>
       </c>
       <c r="B262" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C262">
         <v>8691.2559999999994</v>
@@ -14520,7 +14518,7 @@
         <v>2006</v>
       </c>
       <c r="B263" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C263">
         <v>20158.38</v>
@@ -14573,7 +14571,7 @@
         <v>2006</v>
       </c>
       <c r="B264" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C264">
         <v>9583.64</v>
@@ -14626,7 +14624,7 @@
         <v>2007</v>
       </c>
       <c r="B265" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C265">
         <v>229729.878</v>
@@ -14679,7 +14677,7 @@
         <v>2007</v>
       </c>
       <c r="B266" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C266">
         <v>318990.70399999997</v>
@@ -14732,7 +14730,7 @@
         <v>2007</v>
       </c>
       <c r="B267" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C267">
         <v>1912.63</v>
@@ -14785,7 +14783,7 @@
         <v>2007</v>
       </c>
       <c r="B268" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C268">
         <v>17165.228999999999</v>
@@ -14838,7 +14836,7 @@
         <v>2007</v>
       </c>
       <c r="B269" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C269">
         <v>673.572</v>
@@ -14891,7 +14889,7 @@
         <v>2007</v>
       </c>
       <c r="B270" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C270">
         <v>646</v>
@@ -14944,7 +14942,7 @@
         <v>2007</v>
       </c>
       <c r="B271" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C271">
         <v>77269.459000000003</v>
@@ -14997,7 +14995,7 @@
         <v>2007</v>
       </c>
       <c r="B272" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C272">
         <v>5669.982</v>
@@ -15050,7 +15048,7 @@
         <v>2007</v>
       </c>
       <c r="B273" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C273">
         <v>68133.346000000005</v>
@@ -15103,7 +15101,7 @@
         <v>2007</v>
       </c>
       <c r="B274" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C274">
         <v>125710.287</v>
@@ -15156,7 +15154,7 @@
         <v>2007</v>
       </c>
       <c r="B275" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C275">
         <v>56031.663999999997</v>
@@ -15209,7 +15207,7 @@
         <v>2007</v>
       </c>
       <c r="B276" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C276">
         <v>11742.296</v>
@@ -15262,7 +15260,7 @@
         <v>2007</v>
       </c>
       <c r="B277" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C277">
         <v>15650.911</v>
@@ -15315,7 +15313,7 @@
         <v>2007</v>
       </c>
       <c r="B278" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C278">
         <v>10794.178</v>
@@ -15368,7 +15366,7 @@
         <v>2007</v>
       </c>
       <c r="B279" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C279">
         <v>24236.483</v>
@@ -15421,7 +15419,7 @@
         <v>2007</v>
       </c>
       <c r="B280" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C280">
         <v>12411.566999999999</v>
@@ -15474,7 +15472,7 @@
         <v>2008</v>
       </c>
       <c r="B281" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C281">
         <v>336481.84700000001</v>
@@ -15527,7 +15525,7 @@
         <v>2008</v>
       </c>
       <c r="B282" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C282">
         <v>525439.69099999999</v>
@@ -15580,7 +15578,7 @@
         <v>2008</v>
       </c>
       <c r="B283" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C283">
         <v>2639.5680000000002</v>
@@ -15633,7 +15631,7 @@
         <v>2008</v>
       </c>
       <c r="B284" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C284">
         <v>23004.028999999999</v>
@@ -15686,7 +15684,7 @@
         <v>2008</v>
       </c>
       <c r="B285" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C285">
         <v>1057.23</v>
@@ -15739,7 +15737,7 @@
         <v>2008</v>
       </c>
       <c r="B286" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C286">
         <v>863.33</v>
@@ -15792,7 +15790,7 @@
         <v>2008</v>
       </c>
       <c r="B287" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C287">
         <v>105383.59299999999</v>
@@ -15845,7 +15843,7 @@
         <v>2008</v>
       </c>
       <c r="B288" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C288">
         <v>9165.3130000000001</v>
@@ -15898,7 +15896,7 @@
         <v>2008</v>
       </c>
       <c r="B289" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C289">
         <v>93318.081999999995</v>
@@ -15951,7 +15949,7 @@
         <v>2008</v>
       </c>
       <c r="B290" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C290">
         <v>187727.03700000001</v>
@@ -16004,7 +16002,7 @@
         <v>2008</v>
       </c>
       <c r="B291" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C291">
         <v>79693.066999999995</v>
@@ -16057,7 +16055,7 @@
         <v>2008</v>
       </c>
       <c r="B292" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C292">
         <v>29290.091</v>
@@ -16110,7 +16108,7 @@
         <v>2008</v>
       </c>
       <c r="B293" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C293">
         <v>27857.352999999999</v>
@@ -16163,7 +16161,7 @@
         <v>2008</v>
       </c>
       <c r="B294" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C294">
         <v>17623.404999999999</v>
@@ -16216,7 +16214,7 @@
         <v>2008</v>
       </c>
       <c r="B295" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C295">
         <v>35032.485999999997</v>
@@ -16269,7 +16267,7 @@
         <v>2008</v>
       </c>
       <c r="B296" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C296">
         <v>22256.017</v>
@@ -16322,7 +16320,7 @@
         <v>2009</v>
       </c>
       <c r="B297" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C297">
         <v>469369.451</v>
@@ -16375,7 +16373,7 @@
         <v>2009</v>
       </c>
       <c r="B298" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C298">
         <v>1059676.5</v>
@@ -16428,7 +16426,7 @@
         <v>2009</v>
       </c>
       <c r="B299" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C299">
         <v>4381.6610000000001</v>
@@ -16481,7 +16479,7 @@
         <v>2009</v>
       </c>
       <c r="B300" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C300">
         <v>38378.087</v>
@@ -16534,7 +16532,7 @@
         <v>2009</v>
       </c>
       <c r="B301" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C301">
         <v>1311.415</v>
@@ -16587,7 +16585,7 @@
         <v>2009</v>
       </c>
       <c r="B302" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C302">
         <v>1419.2249999999999</v>
@@ -16640,7 +16638,7 @@
         <v>2009</v>
       </c>
       <c r="B303" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C303">
         <v>157613.60699999999</v>
@@ -16693,7 +16691,7 @@
         <v>2009</v>
       </c>
       <c r="B304" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C304">
         <v>15291.837</v>
@@ -16746,7 +16744,7 @@
         <v>2009</v>
       </c>
       <c r="B305" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C305">
         <v>231842.06399999998</v>
@@ -16799,7 +16797,7 @@
         <v>2009</v>
       </c>
       <c r="B306" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C306">
         <v>348886.076</v>
@@ -16852,7 +16850,7 @@
         <v>2009</v>
       </c>
       <c r="B307" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C307">
         <v>117258.052</v>
@@ -16905,7 +16903,7 @@
         <v>2009</v>
       </c>
       <c r="B308" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C308">
         <v>36124.915999999997</v>
@@ -16958,7 +16956,7 @@
         <v>2009</v>
       </c>
       <c r="B309" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C309">
         <v>42846.394</v>
@@ -17011,7 +17009,7 @@
         <v>2009</v>
       </c>
       <c r="B310" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C310">
         <v>25354.523000000001</v>
@@ -17064,7 +17062,7 @@
         <v>2009</v>
       </c>
       <c r="B311" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C311">
         <v>59032.773000000001</v>
@@ -17117,7 +17115,7 @@
         <v>2009</v>
       </c>
       <c r="B312" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C312">
         <v>28938.929</v>
@@ -17170,7 +17168,7 @@
         <v>2010</v>
       </c>
       <c r="B313" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C313">
         <v>620116.09400000004</v>
@@ -17224,7 +17222,7 @@
         <v>2010</v>
       </c>
       <c r="B314" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C314">
         <v>1281758.6429999999</v>
@@ -17278,7 +17276,7 @@
         <v>2010</v>
       </c>
       <c r="B315" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C315">
         <v>6640.8469999999998</v>
@@ -17332,7 +17330,7 @@
         <v>2010</v>
       </c>
       <c r="B316" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C316">
         <v>54936.63</v>
@@ -17386,7 +17384,7 @@
         <v>2010</v>
       </c>
       <c r="B317" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C317">
         <v>3801.6349999999998</v>
@@ -17440,7 +17438,7 @@
         <v>2010</v>
       </c>
       <c r="B318" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C318">
         <v>2165.3150000000001</v>
@@ -17494,7 +17492,7 @@
         <v>2010</v>
       </c>
       <c r="B319" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C319">
         <v>226850.79</v>
@@ -17548,7 +17546,7 @@
         <v>2010</v>
       </c>
       <c r="B320" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C320">
         <v>28764.887999999999</v>
@@ -17602,7 +17600,7 @@
         <v>2010</v>
       </c>
       <c r="B321" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C321">
         <v>423855.87800000003</v>
@@ -17656,7 +17654,7 @@
         <v>2010</v>
       </c>
       <c r="B322" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C322">
         <v>538071.69700000004</v>
@@ -17710,7 +17708,7 @@
         <v>2010</v>
       </c>
       <c r="B323" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C323">
         <v>181258.28599999999</v>
@@ -17764,7 +17762,7 @@
         <v>2010</v>
       </c>
       <c r="B324" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C324">
         <v>50199.807999999997</v>
@@ -17818,7 +17816,7 @@
         <v>2010</v>
       </c>
       <c r="B325" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C325">
         <v>60142.67</v>
@@ -17872,7 +17870,7 @@
         <v>2010</v>
       </c>
       <c r="B326" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C326">
         <v>46413.705000000002</v>
@@ -17926,7 +17924,7 @@
         <v>2010</v>
       </c>
       <c r="B327" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C327">
         <v>104447.386</v>
@@ -17980,7 +17978,7 @@
         <v>2010</v>
       </c>
       <c r="B328" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C328">
         <v>39067.798999999999</v>
@@ -18034,7 +18032,7 @@
         <v>2011</v>
       </c>
       <c r="B329" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C329">
         <v>530956.924</v>
@@ -18087,7 +18085,7 @@
         <v>2011</v>
       </c>
       <c r="B330" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C330">
         <v>1135536.084</v>
@@ -18140,7 +18138,7 @@
         <v>2011</v>
       </c>
       <c r="B331" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C331">
         <v>8030.7939999999999</v>
@@ -18193,7 +18191,7 @@
         <v>2011</v>
       </c>
       <c r="B332" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C332">
         <v>63367.207999999999</v>
@@ -18246,7 +18244,7 @@
         <v>2011</v>
       </c>
       <c r="B333" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C333">
         <v>3250.5549999999998</v>
@@ -18299,7 +18297,7 @@
         <v>2011</v>
       </c>
       <c r="B334" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C334">
         <v>3352.8020000000001</v>
@@ -18352,7 +18350,7 @@
         <v>2011</v>
       </c>
       <c r="B335" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C335">
         <v>213668.098</v>
@@ -18405,7 +18403,7 @@
         <v>2011</v>
       </c>
       <c r="B336" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C336">
         <v>37683.608</v>
@@ -18458,7 +18456,7 @@
         <v>2011</v>
       </c>
       <c r="B337" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C337">
         <v>382869.73</v>
@@ -18511,7 +18509,7 @@
         <v>2011</v>
       </c>
       <c r="B338" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C338">
         <v>516090.79800000001</v>
@@ -18564,7 +18562,7 @@
         <v>2011</v>
       </c>
       <c r="B339" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C339">
         <v>208823.353</v>
@@ -18617,7 +18615,7 @@
         <v>2011</v>
       </c>
       <c r="B340" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C340">
         <v>52377.396999999997</v>
@@ -18670,7 +18668,7 @@
         <v>2011</v>
       </c>
       <c r="B341" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C341">
         <v>58890.241999999998</v>
@@ -18723,7 +18721,7 @@
         <v>2011</v>
       </c>
       <c r="B342" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C342">
         <v>49112.178999999996</v>
@@ -18776,7 +18774,7 @@
         <v>2011</v>
       </c>
       <c r="B343" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C343">
         <v>115135.681</v>
@@ -18829,7 +18827,7 @@
         <v>2011</v>
       </c>
       <c r="B344" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C344">
         <v>46661.919999999998</v>
@@ -18882,7 +18880,7 @@
         <v>2012</v>
       </c>
       <c r="B345" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C345">
         <v>333198.82</v>
@@ -18936,7 +18934,7 @@
         <v>2012</v>
       </c>
       <c r="B346" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C346">
         <v>661405.24699999997</v>
@@ -18990,7 +18988,7 @@
         <v>2012</v>
       </c>
       <c r="B347" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C347">
         <v>5067.9160000000002</v>
@@ -19044,7 +19042,7 @@
         <v>2012</v>
       </c>
       <c r="B348" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C348">
         <v>46882.303999999996</v>
@@ -19098,7 +19096,7 @@
         <v>2012</v>
       </c>
       <c r="B349" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C349">
         <v>2075.8449999999998</v>
@@ -19152,7 +19150,7 @@
         <v>2012</v>
       </c>
       <c r="B350" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C350">
         <v>3228.933</v>
@@ -19206,7 +19204,7 @@
         <v>2012</v>
       </c>
       <c r="B351" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C351">
         <v>140288.64199999999</v>
@@ -19260,7 +19258,7 @@
         <v>2012</v>
       </c>
       <c r="B352" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C352">
         <v>27351.185000000001</v>
@@ -19314,7 +19312,7 @@
         <v>2012</v>
       </c>
       <c r="B353" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C353">
         <v>224509.247</v>
@@ -19368,7 +19366,7 @@
         <v>2012</v>
       </c>
       <c r="B354" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C354">
         <v>348664.54</v>
@@ -19422,7 +19420,7 @@
         <v>2012</v>
       </c>
       <c r="B355" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C355">
         <v>143893.85399999999</v>
@@ -19476,7 +19474,7 @@
         <v>2012</v>
       </c>
       <c r="B356" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C356">
         <v>33974.451999999997</v>
@@ -19530,7 +19528,7 @@
         <v>2012</v>
       </c>
       <c r="B357" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C357">
         <v>41629.69</v>
@@ -19584,7 +19582,7 @@
         <v>2012</v>
       </c>
       <c r="B358" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C358">
         <v>39711.824000000001</v>
@@ -19638,7 +19636,7 @@
         <v>2012</v>
       </c>
       <c r="B359" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C359">
         <v>73829.888000000006</v>
@@ -19692,7 +19690,7 @@
         <v>2012</v>
       </c>
       <c r="B360" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C360">
         <v>33108.222999999998</v>
@@ -19746,7 +19744,7 @@
         <v>2013</v>
       </c>
       <c r="B361" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C361">
         <v>209197.75200000001</v>
@@ -19800,7 +19798,7 @@
         <v>2013</v>
       </c>
       <c r="B362" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C362">
         <v>380512.18400000001</v>
@@ -19854,7 +19852,7 @@
         <v>2013</v>
       </c>
       <c r="B363" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C363">
         <v>3908.1570000000002</v>
@@ -19908,7 +19906,7 @@
         <v>2013</v>
       </c>
       <c r="B364" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C364">
         <v>32895.817000000003</v>
@@ -19962,7 +19960,7 @@
         <v>2013</v>
       </c>
       <c r="B365" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C365">
         <v>1666.9829999999999</v>
@@ -20016,7 +20014,7 @@
         <v>2013</v>
       </c>
       <c r="B366" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C366">
         <v>3002.1950000000002</v>
@@ -20070,7 +20068,7 @@
         <v>2013</v>
       </c>
       <c r="B367" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C367">
         <v>94538.789000000004</v>
@@ -20124,7 +20122,7 @@
         <v>2013</v>
       </c>
       <c r="B368" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C368">
         <v>17154.402000000002</v>
@@ -20178,7 +20176,7 @@
         <v>2013</v>
       </c>
       <c r="B369" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C369">
         <v>129136.02499999999</v>
@@ -20232,7 +20230,7 @@
         <v>2013</v>
       </c>
       <c r="B370" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C370">
         <v>234092.72099999999</v>
@@ -20286,7 +20284,7 @@
         <v>2013</v>
       </c>
       <c r="B371" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C371">
         <v>91210.312000000005</v>
@@ -20340,7 +20338,7 @@
         <v>2013</v>
       </c>
       <c r="B372" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C372">
         <v>20078.14</v>
@@ -20394,7 +20392,7 @@
         <v>2013</v>
       </c>
       <c r="B373" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C373">
         <v>29367.355</v>
@@ -20448,7 +20446,7 @@
         <v>2013</v>
       </c>
       <c r="B374" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C374">
         <v>29241.649000000001</v>
@@ -20502,7 +20500,7 @@
         <v>2013</v>
       </c>
       <c r="B375" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C375">
         <v>36614.701000000001</v>
@@ -20556,7 +20554,7 @@
         <v>2013</v>
       </c>
       <c r="B376" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C376">
         <v>26915.053</v>
@@ -20610,7 +20608,7 @@
         <v>2014</v>
       </c>
       <c r="B377" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C377">
         <v>127369.086</v>
@@ -20664,7 +20662,7 @@
         <v>2014</v>
       </c>
       <c r="B378" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C378">
         <v>213014.611</v>
@@ -20718,7 +20716,7 @@
         <v>2014</v>
       </c>
       <c r="B379" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C379">
         <v>3064.1840000000002</v>
@@ -20772,7 +20770,7 @@
         <v>2014</v>
       </c>
       <c r="B380" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C380">
         <v>18512.506000000001</v>
@@ -20826,7 +20824,7 @@
         <v>2014</v>
       </c>
       <c r="B381" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C381">
         <v>1126.96</v>
@@ -20880,7 +20878,7 @@
         <v>2014</v>
       </c>
       <c r="B382" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C382">
         <v>1723.866</v>
@@ -20934,7 +20932,7 @@
         <v>2014</v>
       </c>
       <c r="B383" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C383">
         <v>53817.716</v>
@@ -20988,7 +20986,7 @@
         <v>2014</v>
       </c>
       <c r="B384" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C384">
         <v>8893.5169999999998</v>
@@ -21042,7 +21040,7 @@
         <v>2014</v>
       </c>
       <c r="B385" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C385">
         <v>71352.729000000007</v>
@@ -21096,7 +21094,7 @@
         <v>2014</v>
       </c>
       <c r="B386" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C386">
         <v>126292.493</v>
@@ -21150,7 +21148,7 @@
         <v>2014</v>
       </c>
       <c r="B387" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C387">
         <v>43125.006999999998</v>
@@ -21204,7 +21202,7 @@
         <v>2014</v>
       </c>
       <c r="B388" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C388">
         <v>8877.2739999999994</v>
@@ -21258,7 +21256,7 @@
         <v>2014</v>
       </c>
       <c r="B389" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C389">
         <v>19921.605</v>
@@ -21312,7 +21310,7 @@
         <v>2014</v>
       </c>
       <c r="B390" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C390">
         <v>15584.512000000001</v>
@@ -21366,7 +21364,7 @@
         <v>2014</v>
       </c>
       <c r="B391" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C391">
         <v>18794.8</v>
@@ -21420,7 +21418,7 @@
         <v>2014</v>
       </c>
       <c r="B392" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C392">
         <v>16161.72</v>
@@ -21474,7 +21472,7 @@
         <v>2015</v>
       </c>
       <c r="B393" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C393">
         <v>86549.415999999997</v>
@@ -21528,7 +21526,7 @@
         <v>2015</v>
       </c>
       <c r="B394" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C394">
         <v>124728.166</v>
@@ -21582,7 +21580,7 @@
         <v>2015</v>
       </c>
       <c r="B395" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C395">
         <v>2794.4360000000001</v>
@@ -21636,7 +21634,7 @@
         <v>2015</v>
       </c>
       <c r="B396" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C396">
         <v>12252.472</v>
@@ -21690,7 +21688,7 @@
         <v>2015</v>
       </c>
       <c r="B397" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C397">
         <v>597.55999999999995</v>
@@ -21744,7 +21742,7 @@
         <v>2015</v>
       </c>
       <c r="B398" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C398">
         <v>1438.7660000000001</v>
@@ -21798,7 +21796,7 @@
         <v>2015</v>
       </c>
       <c r="B399" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C399">
         <v>30477.774000000001</v>
@@ -21852,7 +21850,7 @@
         <v>2015</v>
       </c>
       <c r="B400" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C400">
         <v>5274.21</v>
@@ -21906,7 +21904,7 @@
         <v>2015</v>
       </c>
       <c r="B401" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C401">
         <v>40116.646999999997</v>
@@ -21960,7 +21958,7 @@
         <v>2015</v>
       </c>
       <c r="B402" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C402">
         <v>77196.532000000007</v>
@@ -22014,7 +22012,7 @@
         <v>2015</v>
       </c>
       <c r="B403" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C403">
         <v>28395.077000000001</v>
@@ -22068,7 +22066,7 @@
         <v>2015</v>
       </c>
       <c r="B404" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C404">
         <v>5655.5619999999999</v>
@@ -22122,7 +22120,7 @@
         <v>2015</v>
       </c>
       <c r="B405" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C405">
         <v>14452.731</v>
@@ -22176,7 +22174,7 @@
         <v>2015</v>
       </c>
       <c r="B406" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C406">
         <v>10951.044</v>
@@ -22230,7 +22228,7 @@
         <v>2015</v>
       </c>
       <c r="B407" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C407">
         <v>11273.821</v>
@@ -22284,7 +22282,7 @@
         <v>2015</v>
       </c>
       <c r="B408" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C408">
         <v>10362.509</v>
@@ -22338,7 +22336,7 @@
         <v>2016</v>
       </c>
       <c r="B409" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C409">
         <v>98681.293999999994</v>
@@ -22391,7 +22389,7 @@
         <v>2016</v>
       </c>
       <c r="B410" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C410">
         <v>132231.79999999999</v>
@@ -22444,7 +22442,7 @@
         <v>2016</v>
       </c>
       <c r="B411" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C411">
         <v>2045.104</v>
@@ -22497,7 +22495,7 @@
         <v>2016</v>
       </c>
       <c r="B412" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C412">
         <v>13022.223</v>
@@ -22550,7 +22548,7 @@
         <v>2016</v>
       </c>
       <c r="B413" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C413">
         <v>809.98</v>
@@ -22603,7 +22601,7 @@
         <v>2016</v>
       </c>
       <c r="B414" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C414">
         <v>1826.5450000000001</v>
@@ -22656,7 +22654,7 @@
         <v>2016</v>
       </c>
       <c r="B415" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C415">
         <v>33271.184000000001</v>
@@ -22709,7 +22707,7 @@
         <v>2016</v>
       </c>
       <c r="B416" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C416">
         <v>4868.2879999999996</v>
@@ -22762,7 +22760,7 @@
         <v>2016</v>
       </c>
       <c r="B417" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C417">
         <v>40838.580999999998</v>
@@ -22815,7 +22813,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C418">
         <v>81758.289999999994</v>
@@ -22868,7 +22866,7 @@
         <v>2016</v>
       </c>
       <c r="B419" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C419">
         <v>30098.043000000001</v>
@@ -22921,7 +22919,7 @@
         <v>2016</v>
       </c>
       <c r="B420" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C420">
         <v>5716.4430000000002</v>
@@ -22974,7 +22972,7 @@
         <v>2016</v>
       </c>
       <c r="B421" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C421">
         <v>14159.924999999999</v>
@@ -23027,7 +23025,7 @@
         <v>2016</v>
       </c>
       <c r="B422" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C422">
         <v>10757.581</v>
@@ -23080,7 +23078,7 @@
         <v>2016</v>
       </c>
       <c r="B423" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C423">
         <v>10897.466</v>
@@ -23133,7 +23131,7 @@
         <v>2016</v>
       </c>
       <c r="B424" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C424">
         <v>10182.781999999999</v>
@@ -23186,7 +23184,7 @@
         <v>2017</v>
       </c>
       <c r="B425" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C425">
         <v>133719.652</v>
@@ -23240,7 +23238,7 @@
         <v>2017</v>
       </c>
       <c r="B426" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C426">
         <v>193813.44200000001</v>
@@ -23294,7 +23292,7 @@
         <v>2017</v>
       </c>
       <c r="B427" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C427">
         <v>6279.6509999999998</v>
@@ -23348,7 +23346,7 @@
         <v>2017</v>
       </c>
       <c r="B428" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C428">
         <v>16893.738000000001</v>
@@ -23402,7 +23400,7 @@
         <v>2017</v>
       </c>
       <c r="B429" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C429">
         <v>878.11500000000001</v>
@@ -23456,7 +23454,7 @@
         <v>2017</v>
       </c>
       <c r="B430" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C430">
         <v>2272.67</v>
@@ -23510,7 +23508,7 @@
         <v>2017</v>
       </c>
       <c r="B431" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C431">
         <v>51098.527000000002</v>
@@ -23564,7 +23562,7 @@
         <v>2017</v>
       </c>
       <c r="B432" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C432">
         <v>7004.8959999999997</v>
@@ -23618,7 +23616,7 @@
         <v>2017</v>
       </c>
       <c r="B433" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C433">
         <v>60756.194000000003</v>
@@ -23672,7 +23670,7 @@
         <v>2017</v>
       </c>
       <c r="B434" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C434">
         <v>111639.348</v>
@@ -23726,7 +23724,7 @@
         <v>2017</v>
       </c>
       <c r="B435" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C435">
         <v>40940.228000000003</v>
@@ -23780,7 +23778,7 @@
         <v>2017</v>
       </c>
       <c r="B436" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C436">
         <v>7065.9830000000002</v>
@@ -23834,7 +23832,7 @@
         <v>2017</v>
       </c>
       <c r="B437" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C437">
         <v>19290.915000000001</v>
@@ -23888,7 +23886,7 @@
         <v>2017</v>
       </c>
       <c r="B438" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C438">
         <v>12974.326999999999</v>
@@ -23942,7 +23940,7 @@
         <v>2017</v>
       </c>
       <c r="B439" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C439">
         <v>14556.05</v>
@@ -23996,7 +23994,7 @@
         <v>2017</v>
       </c>
       <c r="B440" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C440">
         <v>13033.072</v>
@@ -24050,7 +24048,7 @@
         <v>2018</v>
       </c>
       <c r="B441" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C441">
         <v>167922.69200000001</v>
@@ -24104,7 +24102,7 @@
         <v>2018</v>
       </c>
       <c r="B442" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C442">
         <v>234569.22700000001</v>
@@ -24158,7 +24156,7 @@
         <v>2018</v>
       </c>
       <c r="B443" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C443">
         <v>4566.0709999999999</v>
@@ -24212,7 +24210,7 @@
         <v>2018</v>
       </c>
       <c r="B444" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C444">
         <v>22354.012999999999</v>
@@ -24266,7 +24264,7 @@
         <v>2018</v>
       </c>
       <c r="B445" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C445">
         <v>1217.088</v>
@@ -24320,7 +24318,7 @@
         <v>2018</v>
       </c>
       <c r="B446" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C446">
         <v>3848.335</v>
@@ -24374,7 +24372,7 @@
         <v>2018</v>
       </c>
       <c r="B447" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C447">
         <v>56280.112999999998</v>
@@ -24428,7 +24426,7 @@
         <v>2018</v>
       </c>
       <c r="B448" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C448">
         <v>7930.7349999999997</v>
@@ -24482,7 +24480,7 @@
         <v>2018</v>
       </c>
       <c r="B449" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C449">
         <v>71421.384999999995</v>
@@ -24536,7 +24534,7 @@
         <v>2018</v>
       </c>
       <c r="B450" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C450">
         <v>131825.04399999999</v>
@@ -24590,7 +24588,7 @@
         <v>2018</v>
       </c>
       <c r="B451" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C451">
         <v>48867.281999999999</v>
@@ -24644,7 +24642,7 @@
         <v>2018</v>
       </c>
       <c r="B452" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C452">
         <v>8654.1939999999995</v>
@@ -24698,7 +24696,7 @@
         <v>2018</v>
       </c>
       <c r="B453" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C453">
         <v>24439.498</v>
@@ -24752,7 +24750,7 @@
         <v>2018</v>
       </c>
       <c r="B454" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C454">
         <v>16209.826000000001</v>
@@ -24806,7 +24804,7 @@
         <v>2018</v>
       </c>
       <c r="B455" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C455">
         <v>17887.165000000001</v>
@@ -24860,7 +24858,7 @@
         <v>2018</v>
       </c>
       <c r="B456" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C456">
         <v>14923.532999999999</v>
@@ -24914,7 +24912,7 @@
         <v>2019</v>
       </c>
       <c r="B457" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C457">
         <v>167667.37100000001</v>
@@ -24965,7 +24963,7 @@
         <v>2019</v>
       </c>
       <c r="B458" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C458">
         <v>231132.65700000001</v>
@@ -25016,7 +25014,7 @@
         <v>2019</v>
       </c>
       <c r="B459" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C459">
         <v>5184.7460000000001</v>
@@ -25067,7 +25065,7 @@
         <v>2019</v>
       </c>
       <c r="B460" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C460">
         <v>25924.632000000001</v>
@@ -25118,7 +25116,7 @@
         <v>2019</v>
       </c>
       <c r="B461" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C461">
         <v>884.08</v>
@@ -25169,7 +25167,7 @@
         <v>2019</v>
       </c>
       <c r="B462" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C462">
         <v>2174.2800000000002</v>
@@ -25220,7 +25218,7 @@
         <v>2019</v>
       </c>
       <c r="B463" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C463">
         <v>53425.959000000003</v>
@@ -25271,7 +25269,7 @@
         <v>2019</v>
       </c>
       <c r="B464" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C464">
         <v>9540.6260000000002</v>
@@ -25322,7 +25320,7 @@
         <v>2019</v>
       </c>
       <c r="B465" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C465">
         <v>81849.422000000006</v>
@@ -25373,7 +25371,7 @@
         <v>2019</v>
       </c>
       <c r="B466" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C466">
         <v>148386.609</v>
@@ -25424,7 +25422,7 @@
         <v>2019</v>
       </c>
       <c r="B467" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C467">
         <v>50397.726999999999</v>
@@ -25475,7 +25473,7 @@
         <v>2019</v>
       </c>
       <c r="B468" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C468">
         <v>7878.8040000000001</v>
@@ -25526,7 +25524,7 @@
         <v>2019</v>
       </c>
       <c r="B469" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C469">
         <v>24904.416000000001</v>
@@ -25577,7 +25575,7 @@
         <v>2019</v>
       </c>
       <c r="B470" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C470">
         <v>18854.647000000001</v>
@@ -25628,7 +25626,7 @@
         <v>2019</v>
       </c>
       <c r="B471" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C471">
         <v>18723.800999999999</v>
@@ -25679,7 +25677,7 @@
         <v>2019</v>
       </c>
       <c r="B472" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C472">
         <v>12565.767</v>
@@ -25730,7 +25728,7 @@
         <v>2020</v>
       </c>
       <c r="B473" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C473">
         <v>25524.458999999999</v>
@@ -25771,7 +25769,7 @@
         <v>2020</v>
       </c>
       <c r="B474" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C474">
         <v>32193.178</v>
@@ -25812,7 +25810,7 @@
         <v>2020</v>
       </c>
       <c r="B475" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C475">
         <v>928.29600000000005</v>
@@ -25853,7 +25851,7 @@
         <v>2020</v>
       </c>
       <c r="B476" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C476">
         <v>4305.67</v>
@@ -25894,7 +25892,7 @@
         <v>2020</v>
       </c>
       <c r="B477" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C477">
         <v>257.63499999999999</v>
@@ -25935,7 +25933,7 @@
         <v>2020</v>
       </c>
       <c r="B478" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C478">
         <v>239.255</v>
@@ -25976,7 +25974,7 @@
         <v>2020</v>
       </c>
       <c r="B479" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C479">
         <v>8493.9529999999995</v>
@@ -26017,7 +26015,7 @@
         <v>2020</v>
       </c>
       <c r="B480" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C480">
         <v>1504.6559999999999</v>
@@ -26058,7 +26056,7 @@
         <v>2020</v>
       </c>
       <c r="B481" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C481">
         <v>14134.761</v>
@@ -26099,7 +26097,7 @@
         <v>2020</v>
       </c>
       <c r="B482" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C482">
         <v>26366.855</v>
@@ -26140,7 +26138,7 @@
         <v>2020</v>
       </c>
       <c r="B483" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C483">
         <v>7754.866</v>
@@ -26181,7 +26179,7 @@
         <v>2020</v>
       </c>
       <c r="B484" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C484">
         <v>1122.912</v>
@@ -26222,7 +26220,7 @@
         <v>2020</v>
       </c>
       <c r="B485" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C485">
         <v>4094.4270000000001</v>
@@ -26263,7 +26261,7 @@
         <v>2020</v>
       </c>
       <c r="B486" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C486">
         <v>2785.0749999999998</v>
@@ -26304,7 +26302,7 @@
         <v>2020</v>
       </c>
       <c r="B487" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C487">
         <v>2743.98</v>
@@ -26345,7 +26343,7 @@
         <v>2020</v>
       </c>
       <c r="B488" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C488">
         <v>1988.87</v>

--- a/course_project/data/cum_and_ann_installed_cap_bundesland.xlsx
+++ b/course_project/data/cum_and_ann_installed_cap_bundesland.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi Eckmann\Desktop\ETH Studium\MASTERSTUDIUM\2. Semester\Big Data for Public Policy\big_data_policy_2020\course_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0DA47D-EAD9-4CE8-BFE3-800C2A2715B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C47B11D-00EE-440C-8EE4-0F0D21A668C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
+      <selection activeCell="E455" sqref="E455"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -24920,6 +24922,9 @@
       <c r="D457">
         <v>4129401.352</v>
       </c>
+      <c r="E457">
+        <v>0.26</v>
+      </c>
       <c r="F457">
         <f>(11.55*(1/12)+11.43*(1/12)+11.32*(1/12)+11.21*(1/12)+11.05*(1/12)+10.9*(1/12)+10.74*(1/12)+10.59*(1/12)+10.44*(1/12)+10.3*(1/12)+10.19*(1/12)+10.09*(1/12))</f>
         <v>10.817499999999999</v>
@@ -24971,6 +24976,9 @@
       <c r="D458">
         <v>7534858.1899999995</v>
       </c>
+      <c r="E458">
+        <v>0.26</v>
+      </c>
       <c r="F458">
         <f t="shared" ref="F458:F472" si="65">(11.55*(1/12)+11.43*(1/12)+11.32*(1/12)+11.21*(1/12)+11.05*(1/12)+10.9*(1/12)+10.74*(1/12)+10.59*(1/12)+10.44*(1/12)+10.3*(1/12)+10.19*(1/12)+10.09*(1/12))</f>
         <v>10.817499999999999</v>
@@ -25022,6 +25030,9 @@
       <c r="D459">
         <v>62363.127</v>
       </c>
+      <c r="E459">
+        <v>0.26</v>
+      </c>
       <c r="F459">
         <f t="shared" si="65"/>
         <v>10.817499999999999</v>
@@ -25073,6 +25084,9 @@
       <c r="D460">
         <v>404978.946</v>
       </c>
+      <c r="E460">
+        <v>0.26</v>
+      </c>
       <c r="F460">
         <f t="shared" si="65"/>
         <v>10.817499999999999</v>
@@ -25124,6 +25138,9 @@
       <c r="D461">
         <v>21685.271000000001</v>
       </c>
+      <c r="E461">
+        <v>0.26</v>
+      </c>
       <c r="F461">
         <f t="shared" si="65"/>
         <v>10.817499999999999</v>
@@ -25175,6 +25192,9 @@
       <c r="D462">
         <v>31794.819</v>
       </c>
+      <c r="E462">
+        <v>0.26</v>
+      </c>
       <c r="F462">
         <f t="shared" si="65"/>
         <v>10.817499999999999</v>
@@ -25226,6 +25246,9 @@
       <c r="D463">
         <v>1457220.791</v>
       </c>
+      <c r="E463">
+        <v>0.26</v>
+      </c>
       <c r="F463">
         <f t="shared" si="65"/>
         <v>10.817499999999999</v>
@@ -25277,6 +25300,9 @@
       <c r="D464">
         <v>197800.66899999999</v>
       </c>
+      <c r="E464">
+        <v>0.26</v>
+      </c>
       <c r="F464">
         <f t="shared" si="65"/>
         <v>10.817499999999999</v>
@@ -25328,6 +25354,9 @@
       <c r="D465">
         <v>2105937.14</v>
       </c>
+      <c r="E465">
+        <v>0.26</v>
+      </c>
       <c r="F465">
         <f t="shared" si="65"/>
         <v>10.817499999999999</v>
@@ -25379,6 +25408,9 @@
       <c r="D466">
         <v>3299541.1529999999</v>
       </c>
+      <c r="E466">
+        <v>0.26</v>
+      </c>
       <c r="F466">
         <f t="shared" si="65"/>
         <v>10.817499999999999</v>
@@ -25430,6 +25462,9 @@
       <c r="D467">
         <v>1238609.2420000001</v>
       </c>
+      <c r="E467">
+        <v>0.26</v>
+      </c>
       <c r="F467">
         <f t="shared" si="65"/>
         <v>10.817499999999999</v>
@@ -25481,6 +25516,9 @@
       <c r="D468">
         <v>293271.30799999996</v>
       </c>
+      <c r="E468">
+        <v>0.26</v>
+      </c>
       <c r="F468">
         <f t="shared" si="65"/>
         <v>10.817499999999999</v>
@@ -25532,6 +25570,9 @@
       <c r="D469">
         <v>421587.27</v>
       </c>
+      <c r="E469">
+        <v>0.26</v>
+      </c>
       <c r="F469">
         <f t="shared" si="65"/>
         <v>10.817499999999999</v>
@@ -25583,6 +25624,9 @@
       <c r="D470">
         <v>323987.272</v>
       </c>
+      <c r="E470">
+        <v>0.26</v>
+      </c>
       <c r="F470">
         <f t="shared" si="65"/>
         <v>10.817499999999999</v>
@@ -25634,6 +25678,9 @@
       <c r="D471">
         <v>596546.90700000001</v>
       </c>
+      <c r="E471">
+        <v>0.26</v>
+      </c>
       <c r="F471">
         <f t="shared" si="65"/>
         <v>10.817499999999999</v>
@@ -25684,6 +25731,9 @@
       </c>
       <c r="D472">
         <v>309550.87099999998</v>
+      </c>
+      <c r="E472">
+        <v>0.26</v>
       </c>
       <c r="F472">
         <f t="shared" si="65"/>

--- a/course_project/data/cum_and_ann_installed_cap_bundesland.xlsx
+++ b/course_project/data/cum_and_ann_installed_cap_bundesland.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi Eckmann\Desktop\ETH Studium\MASTERSTUDIUM\2. Semester\Big Data for Public Policy\big_data_policy_2020\course_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C47B11D-00EE-440C-8EE4-0F0D21A668C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790F100C-D332-40CF-96EB-43B83AC13E5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O501"/>
+  <dimension ref="A1:O499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
-      <selection activeCell="E455" sqref="E455"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1174,7 +1174,7 @@
         <v>419</v>
       </c>
       <c r="I14">
-        <v>19683</v>
+        <v>18853</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="5"/>
-        <v>28789.61625546305</v>
+        <v>27575.605104112426</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1228,7 +1228,7 @@
         <v>755</v>
       </c>
       <c r="I15">
-        <v>18853</v>
+        <v>61137</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="5"/>
-        <v>11297.630511812085</v>
+        <v>36636.250814228799</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1282,7 +1282,7 @@
         <v>21116</v>
       </c>
       <c r="I16">
-        <v>61137</v>
+        <v>150304</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="5"/>
-        <v>10473.452760080379</v>
+        <v>25748.758422086808</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -1336,7 +1336,7 @@
         <v>47710</v>
       </c>
       <c r="I17">
-        <v>150304</v>
+        <v>144406</v>
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="5"/>
-        <v>20105.433673230524</v>
+        <v>19316.486953218322</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -1390,7 +1390,7 @@
         <v>34112</v>
       </c>
       <c r="I18">
-        <v>14312</v>
+        <v>379917</v>
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="5"/>
-        <v>817.36776283724839</v>
+        <v>21697.310533387292</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -1444,7 +1444,7 @@
         <v>19858</v>
       </c>
       <c r="I19">
-        <v>144406</v>
+        <v>76346</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="5"/>
-        <v>37790.400224011348</v>
+        <v>19979.404564231198</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -1498,7 +1498,7 @@
         <v>2571</v>
       </c>
       <c r="I20">
-        <v>379917</v>
+        <v>21435</v>
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="5"/>
-        <v>352794.51080390642</v>
+        <v>19904.743244134206</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -1552,7 +1552,7 @@
         <v>18450</v>
       </c>
       <c r="I21">
-        <v>76346</v>
+        <v>36618</v>
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="5"/>
-        <v>16317.163285121624</v>
+        <v>7826.2369367692281</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -1606,7 +1606,7 @@
         <v>20454</v>
       </c>
       <c r="I22">
-        <v>21435</v>
+        <v>20503</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="5"/>
-        <v>7592.114826353617</v>
+        <v>7262.0074777106702</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -1660,7 +1660,7 @@
         <v>15804</v>
       </c>
       <c r="I23">
-        <v>36618</v>
+        <v>50969</v>
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="5"/>
-        <v>13825.772163598551</v>
+        <v>19244.245491464706</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -1714,7 +1714,7 @@
         <v>16202</v>
       </c>
       <c r="I24">
-        <v>20503</v>
+        <v>17029</v>
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="5"/>
-        <v>7971.4035665450665</v>
+        <v>6620.7399568207538</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -1768,7 +1768,7 @@
         <v>35748</v>
       </c>
       <c r="I25">
-        <v>50969</v>
+        <v>255866</v>
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="5"/>
-        <v>5022.215635724272</v>
+        <v>25211.682117566099</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -1822,7 +1822,7 @@
         <v>70542</v>
       </c>
       <c r="I26">
-        <v>17029</v>
+        <v>283121</v>
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="5"/>
-        <v>1446.782342985374</v>
+        <v>24053.935270912098</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -26429,6 +26429,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I489" s="1"/>
+    </row>
+    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I490" s="1"/>
+    </row>
     <row r="491" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I491" s="1"/>
     </row>
@@ -26455,12 +26461,6 @@
     </row>
     <row r="499" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I499" s="1"/>
-    </row>
-    <row r="500" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I500" s="1"/>
-    </row>
-    <row r="501" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I501" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/course_project/data/cum_and_ann_installed_cap_bundesland.xlsx
+++ b/course_project/data/cum_and_ann_installed_cap_bundesland.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi Eckmann\Desktop\ETH Studium\MASTERSTUDIUM\2. Semester\Big Data for Public Policy\big_data_policy_2020\course_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B0E7F3-DAD0-464F-8666-740F9D59EBFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A1981C-E22D-4496-9AA8-23F95130F3E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O508"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A462" workbookViewId="0">
+      <selection activeCell="M499" sqref="M499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1110,7 +1110,7 @@
         <v>280.37005402577978</v>
       </c>
       <c r="O18">
-        <f t="shared" ref="O3:O75" si="5">(I18/G18)*10^6</f>
+        <f t="shared" ref="O18:O75" si="5">(I18/G18)*10^6</f>
         <v>24283.931756556794</v>
       </c>
     </row>
@@ -7092,7 +7092,7 @@
         <v>292.26116375336346</v>
       </c>
       <c r="O130">
-        <f t="shared" ref="O76:O139" si="19">(I130/G130)*10^6</f>
+        <f t="shared" ref="O130:O139" si="19">(I130/G130)*10^6</f>
         <v>27920.476038841207</v>
       </c>
     </row>
@@ -25922,10 +25922,6 @@
         <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N482">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
       <c r="O482" t="e">
         <f t="shared" si="65"/>
         <v>#DIV/0!</v>
@@ -25963,10 +25959,6 @@
         <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N483">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
       <c r="O483" t="e">
         <f t="shared" si="65"/>
         <v>#DIV/0!</v>
@@ -26004,10 +25996,6 @@
         <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N484">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
       <c r="O484" t="e">
         <f t="shared" si="65"/>
         <v>#DIV/0!</v>
@@ -26045,10 +26033,6 @@
         <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N485">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
       <c r="O485" t="e">
         <f t="shared" si="65"/>
         <v>#DIV/0!</v>
@@ -26086,10 +26070,6 @@
         <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N486">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
       <c r="O486" t="e">
         <f t="shared" si="65"/>
         <v>#DIV/0!</v>
@@ -26127,10 +26107,6 @@
         <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N487">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
       <c r="O487" t="e">
         <f t="shared" si="65"/>
         <v>#DIV/0!</v>
@@ -26168,10 +26144,6 @@
         <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N488">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
       <c r="O488" t="e">
         <f t="shared" si="65"/>
         <v>#DIV/0!</v>
@@ -26209,10 +26181,6 @@
         <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N489">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
       <c r="O489" t="e">
         <f t="shared" si="65"/>
         <v>#DIV/0!</v>
@@ -26250,10 +26218,6 @@
         <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N490">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
       <c r="O490" t="e">
         <f t="shared" si="65"/>
         <v>#DIV/0!</v>
@@ -26291,10 +26255,6 @@
         <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N491">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
       <c r="O491" t="e">
         <f t="shared" si="65"/>
         <v>#DIV/0!</v>
@@ -26332,10 +26292,6 @@
         <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N492">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
       <c r="O492" t="e">
         <f t="shared" si="65"/>
         <v>#DIV/0!</v>
@@ -26373,10 +26329,6 @@
         <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N493">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
       <c r="O493" t="e">
         <f t="shared" si="65"/>
         <v>#DIV/0!</v>
@@ -26414,10 +26366,6 @@
         <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N494">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
       <c r="O494" t="e">
         <f t="shared" si="65"/>
         <v>#DIV/0!</v>
@@ -26455,10 +26403,6 @@
         <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N495">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
       <c r="O495" t="e">
         <f t="shared" si="65"/>
         <v>#DIV/0!</v>
@@ -26496,10 +26440,6 @@
         <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N496">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
       <c r="O496" t="e">
         <f t="shared" si="65"/>
         <v>#DIV/0!</v>
@@ -26536,10 +26476,6 @@
       <c r="M497" t="e">
         <f t="shared" si="63"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="N497">
-        <f t="shared" si="64"/>
-        <v>0</v>
       </c>
       <c r="O497" t="e">
         <f t="shared" si="65"/>
